--- a/fe_client/Assets/GameData/sheet_item.xlsx
+++ b/fe_client/Assets/GameData/sheet_item.xlsx
@@ -163,7 +163,7 @@
     <t>로드 아스트랄 - 공격 횟수 2회</t>
   </si>
   <si>
-    <t>팔룸 - 방어력 + 3</t>
+    <t>팔랑크스 - 방어력 + 3</t>
   </si>
   <si>
     <t>치유의 지팡이_힐량 7</t>
@@ -22080,7 +22080,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>3004.0</v>
+        <v>3002.0</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>49</v>
@@ -22092,7 +22092,7 @@
         <v>0.0</v>
       </c>
       <c r="E11" s="1">
-        <v>300400.0</v>
+        <v>300200.0</v>
       </c>
     </row>
     <row r="12">
